--- a/docs/Risikomanagement/Risikotabelle.xlsx
+++ b/docs/Risikomanagement/Risikotabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\DHBW\Semester 4\Software-Engineering\PlanIt-Docs\docs\Risikomanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4524AEAF-54E3-442A-865F-1BA7AB86A0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D40727-AE6C-45B1-8BA2-92C24AA3623E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-132" windowWidth="30936" windowHeight="16896" xr2:uid="{92655C1E-10A3-4845-9623-C6D2911A8AAE}"/>
+    <workbookView xWindow="16020" yWindow="3096" windowWidth="23040" windowHeight="12204" xr2:uid="{92655C1E-10A3-4845-9623-C6D2911A8AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831FB94D-06A4-4AF5-A5A1-58E6A2B75751}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,8 +631,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>